--- a/Analisis Resultados/Python/Análisis_PythonCBC_CubeMaster_Carrefour.xlsx
+++ b/Analisis Resultados/Python/Análisis_PythonCBC_CubeMaster_Carrefour.xlsx
@@ -21,14 +21,14 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="13" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
   <si>
     <t>Container</t>
   </si>
@@ -107,15 +107,12 @@
   <si>
     <t>PALETS PLATAFORMA</t>
   </si>
-  <si>
-    <t>PALET-001(052-1984613-SE)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +245,12 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -597,8 +600,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -644,421 +647,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="93">
     <dxf>
       <font>
         <b val="0"/>
@@ -1370,6 +959,420 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -1669,428 +1672,819 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2463,16 +2857,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Federico Muñoz" refreshedDate="42511.543678472219" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Federico Muñoz" refreshedDate="42511.742059374999" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:H11" sheet="CBC"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Container" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="5">
         <s v="PALET-001(012-1984613-SE)"/>
-        <s v="PALET-001(052-1984613-SE)"/>
         <s v="PALET-002(032-1984613-SE)"/>
+        <s v="PALET-003(052-1984613-SE)"/>
+        <s v="PALET-001(032-1984613-SE)" u="1"/>
+        <s v="PALET-001(052-1984613-SE)" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Loaded" numFmtId="0">
@@ -2482,27 +2878,30 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="100"/>
     </cacheField>
     <cacheField name="Area Effi." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="9"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="5"/>
     </cacheField>
     <cacheField name="SKU" numFmtId="0">
       <sharedItems count="7">
+        <s v="21188-CHULETA AGUJA C/HUESO BAND."/>
+        <s v="21220-CHULETA LOMO 500-700 GRS. BAND"/>
         <s v="21192-FILETE DE PANCETA BAND."/>
         <s v="21193-COSTILLA TROCEADA BAND."/>
+        <s v="21261-SOLOMILLO PACK 3 UN. VACIO"/>
         <s v="21196-ESCALOPIN LOMO S. TIERNOS 250"/>
-        <s v="21220-CHULETA LOMO 500-700 GRS. BAND"/>
         <s v="21195-ESCALOPIN LOMO S. TIERNOS 600"/>
-        <s v="21188-CHULETA AGUJA C/HUESO BAND."/>
-        <s v="21261-SOLOMILLO PACK 3 UN. VACIO"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Loaded2" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="Column #" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8" count="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8" count="6">
+        <n v="3"/>
+        <n v="8"/>
         <n v="1"/>
-        <n v="2"/>
-        <n v="8"/>
+        <n v="2" u="1"/>
+        <n v="7" u="1"/>
+        <n v="4" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Customer Product Code" numFmtId="0">
@@ -2598,8 +2997,18 @@
     <x v="0"/>
     <n v="100"/>
     <n v="100"/>
-    <n v="9"/>
+    <n v="5"/>
     <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="5"/>
+    <x v="1"/>
     <n v="1"/>
     <x v="0"/>
     <n v="999999"/>
@@ -2608,39 +3017,9 @@
     <x v="0"/>
     <n v="100"/>
     <n v="100"/>
-    <n v="9"/>
-    <x v="1"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="9"/>
+    <n v="5"/>
     <x v="2"/>
     <n v="1"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="9"/>
-    <x v="3"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="100"/>
-    <n v="100"/>
-    <n v="9"/>
-    <x v="4"/>
-    <n v="3"/>
     <x v="1"/>
     <n v="999999"/>
   </r>
@@ -2648,9 +3027,29 @@
     <x v="0"/>
     <n v="100"/>
     <n v="100"/>
-    <n v="9"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="4"/>
     <x v="5"/>
-    <n v="2"/>
+    <n v="1"/>
     <x v="2"/>
     <n v="999999"/>
   </r>
@@ -2658,23 +3057,25 @@
     <x v="2"/>
     <n v="100"/>
     <n v="100"/>
-    <n v="5"/>
+    <n v="4"/>
     <x v="6"/>
-    <n v="5"/>
-    <x v="0"/>
+    <n v="3"/>
+    <x v="1"/>
     <n v="999999"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="E2:H11" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="5">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item x="1"/>
+        <item m="1" x="3"/>
         <item x="2"/>
       </items>
       <extLst>
@@ -2688,21 +3089,24 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="7">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
         <item x="6"/>
         <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
+      <items count="6">
+        <item x="2"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -2720,32 +3124,32 @@
   <rowItems count="8">
     <i>
       <x/>
-      <x/>
+      <x v="2"/>
       <x/>
     </i>
     <i r="2">
       <x v="1"/>
     </i>
-    <i r="2">
+    <i r="1">
+      <x v="3"/>
       <x v="2"/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i r="2">
       <x v="4"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="2"/>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
       <x/>
       <x v="6"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="2"/>
       <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -2758,38 +3162,38 @@
     <dataField name="CBC" fld="5" baseField="4" baseItem="6"/>
   </dataFields>
   <formats count="31">
-    <format dxfId="75">
+    <format dxfId="92">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="91">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="90">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="89">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="88">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="87">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="86">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2802,7 +3206,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2819,7 +3223,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2834,41 +3238,41 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="80">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="79">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="78">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="77">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="76">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="75">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="74">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="73">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2881,7 +3285,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2894,7 +3298,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2906,7 +3310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2923,7 +3327,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2938,7 +3342,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2953,7 +3357,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2968,7 +3372,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2983,7 +3387,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="62">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2997,7 +3401,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A2:D11" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3359,7 +3763,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3440,7 +3844,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>16</v>
@@ -3466,7 +3870,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>17</v>
@@ -3492,7 +3896,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>18</v>
@@ -3518,7 +3922,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>15</v>
@@ -3541,16 +3945,16 @@
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H8" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -3567,16 +3971,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -3593,16 +3997,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -3878,7 +4282,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+      <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3942,16 +4346,16 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>999999</v>
@@ -3968,16 +4372,16 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>999999</v>
@@ -3985,7 +4389,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -3994,16 +4398,16 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>999999</v>
@@ -4020,16 +4424,16 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>999999</v>
@@ -4037,7 +4441,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -4046,16 +4450,16 @@
         <v>100</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
         <v>3</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
       </c>
       <c r="H9">
         <v>999999</v>
@@ -4063,7 +4467,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -4072,16 +4476,16 @@
         <v>100</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>999999</v>
@@ -4089,7 +4493,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -4098,16 +4502,16 @@
         <v>100</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>999999</v>
